--- a/data/sheets/tmp.xlsx
+++ b/data/sheets/tmp.xlsx
@@ -345,40 +345,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>a207c5</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>N23SP</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/sheets/tmp.xlsx
+++ b/data/sheets/tmp.xlsx
@@ -345,14 +345,1563 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>a4e931</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>N4151C</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>FFL312</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>FFL312</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>FFL312</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>FFL312</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>a4e94e</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>N41517</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>DCM2424</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>N4152C</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>N41526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>FFL304</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>N4164A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>a4ede7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>N4168N</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DCM2472</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DCM2472</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>a4f0af</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>N4171U</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DCM2633</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DCM2633</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>N4172N</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>N4175J</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DCM2535</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>DCM2535</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>DCM2535</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>DCM2535</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>DCM2535</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>N4183V</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>N4185D</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>DCM4140</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>N4185Y</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>N41931</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DCM3460</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>N4195S</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>N4196L</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>FFL334</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FFL334</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>FFL334</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>FFL334</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>04CL</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>13MA</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1VA5</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>37MI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>49OH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4MI0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>54AZ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>58CL</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>5PN7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>68CA</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>a4e931</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CEB8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CL23</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>a4e931</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FA37</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>KADS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>a4f0af</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>KAPF</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KAVX</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>KCHD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>KCMA</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>KCMH</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>a4f0af</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>KCOS</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>KCRQ</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>KD98</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>KDAL</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>a4e94e</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>KDKX</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>KDVT</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>KEVB</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>KFMY</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>KFTW</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>KFYM</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>KGRB</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>KHND</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>KHYI</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>a4e94e</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KIAD</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>KIWA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>KLWM</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>KMCC</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>a4e931</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>KMDT</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>KMKC</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>KMVY</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>KMYF</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>KOWD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>KOXR</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>KPAN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>KPDK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>a4ede7</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>KPHF</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>KPTK</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>KPVU</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>KSBA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KSBP</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>KSDF</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>KSDM</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>KSNA</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>KSUS</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>KTEB</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>KTUL</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>a4e94e</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>KTUS</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>KTYS</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>a4ede7</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>MA55</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>MA66</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>MI50</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>a4e94e</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>a4ede7</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>a4e931</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>OI45</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>SC34</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>TN98</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/sheets/tmp.xlsx
+++ b/data/sheets/tmp.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:AB104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,6 +567,21 @@
           <t>DCM3198</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>DCM3198</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -611,6 +626,26 @@
           <t>DCM2633</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>DCM2633</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>DCM2633</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DCM2633</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>DCM2633</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -718,6 +753,41 @@
           <t>FFL321</t>
         </is>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>FFL321</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -842,6 +912,11 @@
           <t>DCM4120</t>
         </is>
       </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>DCM4120</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -941,6 +1016,16 @@
           <t>DCM2439</t>
         </is>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DCM2439</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1015,6 +1100,36 @@
           <t>FFL344</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>FFL344</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1051,103 +1166,178 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04CL</t>
+          <t>a4fe94</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>a4f0cc</t>
+          <t>N4204S</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>FFL349</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13MA</t>
+          <t>a4ff46</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>a4f8c4</t>
+          <t>N4209V</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>FFL342</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1VA5</t>
+          <t>04CL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>a4f4ad</t>
+          <t>a4f0cc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>37MI</t>
+          <t>13MA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4f8c4</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>49OH</t>
+          <t>18XA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>a4f4ad</t>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4MI0</t>
+          <t>1VA5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>54AZ</t>
+          <t>37MI</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>a4f0cc</t>
+          <t>a4f86a</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>58CL</t>
+          <t>3TN4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>a4f0cc</t>
+          <t>a4ed4f</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5PN7</t>
+          <t>49OH</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1159,73 +1349,58 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>68CA</t>
+          <t>4MI0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>a4e931</t>
+          <t>a4f86a</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CEB8</t>
+          <t>54AZ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4f0cc</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CL23</t>
+          <t>58CL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>a4e931</t>
+          <t>a4f0cc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FA37</t>
+          <t>5PA3</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>a4e954</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>a4f4ad</t>
+          <t>a4ff46</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>KADS</t>
+          <t>5PN7</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>a4f0af</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>a4f4e3</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
         <is>
           <t>a4f4ad</t>
         </is>
@@ -1234,120 +1409,120 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KAPF</t>
+          <t>63CA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>a4e954</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>a4f4ad</t>
+          <t>a4f0cc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KAVX</t>
+          <t>68CA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>a4f4f6</t>
+          <t>a4e931</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>KCHD</t>
+          <t>95CA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>a4e970</t>
+          <t>a4f8a7</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KCMA</t>
+          <t>9CA0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>a4f4f6</t>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KCMH</t>
+          <t>9XS0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>a4f0af</t>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KCOS</t>
+          <t>CEB8</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>a4e954</t>
+          <t>a4f86a</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KCRQ</t>
+          <t>CL23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>a4e954</t>
+          <t>a4e931</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KD98</t>
+          <t>CL46</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>KDAL</t>
+          <t>FA37</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>a4e94e</t>
+          <t>a4e954</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>KDKX</t>
+          <t>K47A</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1359,115 +1534,130 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KDVT</t>
+          <t>KADS</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>a4e970</t>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>a4f0af</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>KEVB</t>
+          <t>KAPF</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4e954</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KFMY</t>
+          <t>KAVX</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>a4e954</t>
+          <t>a4f4f6</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KFTW</t>
+          <t>KBMQ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>a4e954</t>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KFYM</t>
+          <t>KCHD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>a4ed4f</t>
+          <t>a4e970</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>KGRB</t>
+          <t>KCMA</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4f4f6</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KHND</t>
+          <t>KCMH</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>a4f4f6</t>
+          <t>a4f0af</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KHYI</t>
+          <t>KCOS</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>a4e94e</t>
+          <t>a4e954</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KIAD</t>
+          <t>KCPM</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>a4f4ad</t>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>KIWA</t>
+          <t>KCRQ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1479,72 +1669,67 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KLWM</t>
+          <t>KD98</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>a4f8c4</t>
+          <t>a4f86a</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>KMCC</t>
+          <t>KDAL</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>a4e931</t>
+          <t>a4e94e</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KMDT</t>
+          <t>KDKX</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>a4f4e3</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>a4f4ad</t>
+          <t>a4ed4f</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KMKC</t>
+          <t>KDTS</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>a4f131</t>
+          <t>a4ed4f</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KMVY</t>
+          <t>KDVT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>a4f8c4</t>
+          <t>a4e970</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KMYF</t>
+          <t>KEVB</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1556,151 +1741,156 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KOWD</t>
+          <t>KFMY</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>a4f8c4</t>
+          <t>a4e954</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KOXR</t>
+          <t>KFTW</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>a4f4f6</t>
+          <t>a4e954</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KPAN</t>
+          <t>KFYM</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>a4e970</t>
+          <t>a4ed4f</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KPDK</t>
+          <t>KGRB</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>a4ede7</t>
+          <t>a4f86a</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>KPHF</t>
+          <t>KHND</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>a4f4ad</t>
+          <t>a4f4f6</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KPTK</t>
+          <t>KHYI</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>a4e954</t>
+          <t>a4e94e</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KPVU</t>
+          <t>KIAD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KSBA</t>
+          <t>KIWA</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>a4f4f6</t>
+          <t>a4e954</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>KSBP</t>
+          <t>KLNS</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>a4f8a7</t>
+          <t>a4ff46</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KSDF</t>
+          <t>KLWM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>a4f4e3</t>
+          <t>a4f8c4</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KSDM</t>
+          <t>KMCC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>a4f0cc</t>
+          <t>a4e931</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KSNA</t>
+          <t>KMDT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>a4f8a7</t>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>KSUS</t>
+          <t>KMKC</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1712,77 +1902,67 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>KTEB</t>
+          <t>KMVY</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>a4f4e3</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>a4f4ad</t>
+          <t>a4f8c4</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>KTUL</t>
+          <t>KMYF</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>a4e94e</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>a4f131</t>
+          <t>a4f86a</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KTUS</t>
+          <t>KN47</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>a4e970</t>
+          <t>a4ff46</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>KTYS</t>
+          <t>KN57</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>a4ede7</t>
+          <t>a4ff46</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MA55</t>
+          <t>KN71</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>a4f8c4</t>
+          <t>a4ff46</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MA66</t>
+          <t>KOWD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1794,110 +1974,370 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MI50</t>
+          <t>KOXR</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>a4f86a</t>
+          <t>a4f4f6</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>KPAN</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>a4f131</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
           <t>a4e970</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>a4f4e3</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>a4f86a</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>a4ed4f</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>a4f8c4</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>a4e954</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>a4e94e</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>a4ede7</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>a4e931</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>a4f0cc</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>OI45</t>
+          <t>KPDK</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>a4f4ad</t>
+          <t>a4ede7</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SC34</t>
+          <t>KPHF</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>a4ed4f</t>
+          <t>a4f4ad</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>KPRB</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>KPTK</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>a4e954</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>KPTW</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>a4ff46</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>KPVU</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>KSAC</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>KSBA</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>a4f4f6</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>KSBD</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>a4fe94</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>KSBP</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>KSDF</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>KSDM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>a4f0cc</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>KSMO</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>KSNA</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>a4f8a7</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>KSUS</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>KTEB</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>a4f4e3</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>KTTN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>KTUL</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>a4e94e</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>a4f131</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>KTUS</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>a4e970</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>KTYS</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>a4ede7</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>MA55</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>MA66</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>a4f8c4</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>MI50</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>a4f86a</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>OI45</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>a4f4ad</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>SC34</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>TN94</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>TN98</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>a4ed4f</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>XS03</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>a4fe94</t>
         </is>
       </c>
     </row>
